--- a/400_SulfurEngine/Documents/TCR.xlsx
+++ b/400_SulfurEngine/Documents/TCR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lagobas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sulfur\400_SulfurEngine\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2289,6 +2289,63 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2316,67 +2373,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3047,8 +3047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3102,7 +3102,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="52">
         <f>COUNTIF(F$10:F$90,"Not Tested")</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>7</v>
@@ -3136,7 +3136,7 @@
       <c r="E5" s="43"/>
       <c r="F5" s="53">
         <f>COUNTIF(F$10:F$90,"Passed")</f>
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G5" s="40" t="s">
         <v>3</v>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="E16" s="45"/>
       <c r="F16" s="44" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G16" s="44" t="s">
         <v>7</v>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="E17" s="45"/>
       <c r="F17" s="44" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G17" s="44" t="s">
         <v>7</v>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="E19" s="44"/>
       <c r="F19" s="44" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G19" s="44" t="s">
         <v>7</v>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="E20" s="44"/>
       <c r="F20" s="44" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G20" s="44" t="s">
         <v>7</v>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="E21" s="44"/>
       <c r="F21" s="44" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G21" s="44" t="s">
         <v>7</v>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="E22" s="44"/>
       <c r="F22" s="44" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G22" s="44" t="s">
         <v>7</v>
@@ -3545,7 +3545,7 @@
       </c>
       <c r="E24" s="45"/>
       <c r="F24" s="44" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G24" s="44" t="s">
         <v>7</v>
@@ -3589,7 +3589,7 @@
       </c>
       <c r="E26" s="45"/>
       <c r="F26" s="44" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G26" s="44" t="s">
         <v>7</v>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="E27" s="45"/>
       <c r="F27" s="44" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G27" s="44" t="s">
         <v>7</v>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="E28" s="44"/>
       <c r="F28" s="44" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G28" s="44" t="s">
         <v>7</v>
@@ -4673,7 +4673,7 @@
       </c>
       <c r="E75" s="45"/>
       <c r="F75" s="44" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G75" s="44" t="s">
         <v>7</v>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="E76" s="45"/>
       <c r="F76" s="44" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G76" s="44" t="s">
         <v>7</v>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="E77" s="45"/>
       <c r="F77" s="44" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G77" s="44" t="s">
         <v>7</v>
@@ -5215,9 +5215,9 @@
       <c r="C4" s="69" t="s">
         <v>248</v>
       </c>
-      <c r="D4" s="134"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
       <c r="G4" s="73"/>
     </row>
     <row r="5" spans="2:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5225,9 +5225,9 @@
       <c r="C5" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="D5" s="131"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
       <c r="G5" s="77"/>
     </row>
     <row r="6" spans="2:7" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5235,12 +5235,12 @@
       <c r="C6" s="71" t="s">
         <v>241</v>
       </c>
-      <c r="D6" s="149" t="s">
+      <c r="D6" s="127" t="s">
         <v>270</v>
       </c>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="151"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="129"/>
     </row>
     <row r="7" spans="2:7" s="93" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="94"/>
@@ -5291,32 +5291,32 @@
       <c r="C11" s="69" t="s">
         <v>248</v>
       </c>
-      <c r="D11" s="134"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="136"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="130"/>
     </row>
     <row r="12" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="82"/>
       <c r="C12" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="D12" s="137" t="s">
+      <c r="D12" s="131" t="s">
         <v>251</v>
       </c>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="139"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="133"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="83"/>
       <c r="C13" s="80" t="s">
         <v>241</v>
       </c>
-      <c r="D13" s="140"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="142"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="136"/>
     </row>
     <row r="14" spans="2:7" s="93" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="94"/>
@@ -5357,42 +5357,42 @@
       <c r="C17" s="76" t="s">
         <v>247</v>
       </c>
-      <c r="D17" s="131"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="133"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="124"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="82"/>
       <c r="C18" s="69" t="s">
         <v>248</v>
       </c>
-      <c r="D18" s="134"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="136"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="130"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="82"/>
       <c r="C19" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="D19" s="137" t="s">
+      <c r="D19" s="131" t="s">
         <v>253</v>
       </c>
-      <c r="E19" s="138"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="139"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="133"/>
     </row>
     <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="83"/>
       <c r="C20" s="80" t="s">
         <v>241</v>
       </c>
-      <c r="D20" s="140"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="142"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="136"/>
     </row>
     <row r="21" spans="2:7" s="93" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="94"/>
@@ -5423,58 +5423,58 @@
       <c r="C23" s="66" t="s">
         <v>246</v>
       </c>
-      <c r="D23" s="146" t="s">
+      <c r="D23" s="138" t="s">
         <v>267</v>
       </c>
-      <c r="E23" s="147"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="148"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="140"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="82"/>
       <c r="C24" s="76" t="s">
         <v>247</v>
       </c>
-      <c r="D24" s="131" t="s">
+      <c r="D24" s="122" t="s">
         <v>266</v>
       </c>
-      <c r="E24" s="132"/>
-      <c r="F24" s="132"/>
-      <c r="G24" s="133"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="124"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="82"/>
       <c r="C25" s="69" t="s">
         <v>248</v>
       </c>
-      <c r="D25" s="134" t="s">
+      <c r="D25" s="125" t="s">
         <v>265</v>
       </c>
-      <c r="E25" s="135"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="136"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="130"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="82"/>
       <c r="C26" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="D26" s="137" t="s">
+      <c r="D26" s="131" t="s">
         <v>268</v>
       </c>
-      <c r="E26" s="138"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="139"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="133"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="83"/>
       <c r="C27" s="80" t="s">
         <v>241</v>
       </c>
-      <c r="D27" s="140"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="142"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="136"/>
     </row>
     <row r="28" spans="2:7" s="93" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="97"/>
@@ -5520,8 +5520,8 @@
       <c r="C32" s="69" t="s">
         <v>248</v>
       </c>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="137"/>
       <c r="F32" s="98"/>
       <c r="G32" s="98"/>
     </row>
@@ -5530,22 +5530,22 @@
       <c r="C33" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="D33" s="137" t="s">
+      <c r="D33" s="131" t="s">
         <v>242</v>
       </c>
-      <c r="E33" s="138"/>
-      <c r="F33" s="138"/>
-      <c r="G33" s="139"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="133"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="86"/>
       <c r="C34" s="80" t="s">
         <v>241</v>
       </c>
-      <c r="D34" s="140"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="142"/>
+      <c r="D34" s="134"/>
+      <c r="E34" s="135"/>
+      <c r="F34" s="135"/>
+      <c r="G34" s="136"/>
     </row>
     <row r="35" spans="2:7" s="93" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="94"/>
@@ -5596,32 +5596,32 @@
       <c r="C39" s="69" t="s">
         <v>248</v>
       </c>
-      <c r="D39" s="134"/>
-      <c r="E39" s="135"/>
-      <c r="F39" s="135"/>
-      <c r="G39" s="136"/>
+      <c r="D39" s="125"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="126"/>
+      <c r="G39" s="130"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="85"/>
       <c r="C40" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="D40" s="137" t="s">
+      <c r="D40" s="131" t="s">
         <v>256</v>
       </c>
-      <c r="E40" s="138"/>
-      <c r="F40" s="138"/>
-      <c r="G40" s="139"/>
+      <c r="E40" s="132"/>
+      <c r="F40" s="132"/>
+      <c r="G40" s="133"/>
     </row>
     <row r="41" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="86"/>
       <c r="C41" s="80" t="s">
         <v>241</v>
       </c>
-      <c r="D41" s="140"/>
-      <c r="E41" s="141"/>
-      <c r="F41" s="141"/>
-      <c r="G41" s="142"/>
+      <c r="D41" s="134"/>
+      <c r="E41" s="135"/>
+      <c r="F41" s="135"/>
+      <c r="G41" s="136"/>
     </row>
     <row r="42" spans="2:7" s="93" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="94"/>
@@ -5684,22 +5684,22 @@
       <c r="C47" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="D47" s="137" t="s">
+      <c r="D47" s="131" t="s">
         <v>256</v>
       </c>
-      <c r="E47" s="138"/>
-      <c r="F47" s="138"/>
-      <c r="G47" s="139"/>
+      <c r="E47" s="132"/>
+      <c r="F47" s="132"/>
+      <c r="G47" s="133"/>
     </row>
     <row r="48" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="86"/>
       <c r="C48" s="80" t="s">
         <v>241</v>
       </c>
-      <c r="D48" s="140"/>
-      <c r="E48" s="141"/>
-      <c r="F48" s="141"/>
-      <c r="G48" s="142"/>
+      <c r="D48" s="134"/>
+      <c r="E48" s="135"/>
+      <c r="F48" s="135"/>
+      <c r="G48" s="136"/>
     </row>
     <row r="49" spans="2:7" s="93" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="94"/>
@@ -5768,22 +5768,22 @@
       <c r="C54" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="D54" s="137" t="s">
+      <c r="D54" s="131" t="s">
         <v>256</v>
       </c>
-      <c r="E54" s="138"/>
-      <c r="F54" s="138"/>
-      <c r="G54" s="139"/>
+      <c r="E54" s="132"/>
+      <c r="F54" s="132"/>
+      <c r="G54" s="133"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="89"/>
       <c r="C55" s="80" t="s">
         <v>241</v>
       </c>
-      <c r="D55" s="140"/>
-      <c r="E55" s="141"/>
-      <c r="F55" s="141"/>
-      <c r="G55" s="142"/>
+      <c r="D55" s="134"/>
+      <c r="E55" s="135"/>
+      <c r="F55" s="135"/>
+      <c r="G55" s="136"/>
     </row>
     <row r="56" spans="2:7" s="93" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="94"/>
@@ -5852,22 +5852,22 @@
       <c r="C61" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="D61" s="137" t="s">
+      <c r="D61" s="131" t="s">
         <v>256</v>
       </c>
-      <c r="E61" s="138"/>
-      <c r="F61" s="138"/>
-      <c r="G61" s="139"/>
+      <c r="E61" s="132"/>
+      <c r="F61" s="132"/>
+      <c r="G61" s="133"/>
     </row>
     <row r="62" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="89"/>
       <c r="C62" s="80" t="s">
         <v>241</v>
       </c>
-      <c r="D62" s="140"/>
-      <c r="E62" s="141"/>
-      <c r="F62" s="141"/>
-      <c r="G62" s="142"/>
+      <c r="D62" s="134"/>
+      <c r="E62" s="135"/>
+      <c r="F62" s="135"/>
+      <c r="G62" s="136"/>
     </row>
     <row r="63" spans="2:7" s="93" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="94"/>
@@ -5934,22 +5934,22 @@
       <c r="C68" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="D68" s="137" t="s">
+      <c r="D68" s="131" t="s">
         <v>256</v>
       </c>
-      <c r="E68" s="138"/>
-      <c r="F68" s="138"/>
-      <c r="G68" s="139"/>
+      <c r="E68" s="132"/>
+      <c r="F68" s="132"/>
+      <c r="G68" s="133"/>
     </row>
     <row r="69" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="89"/>
       <c r="C69" s="80" t="s">
         <v>241</v>
       </c>
-      <c r="D69" s="140"/>
-      <c r="E69" s="141"/>
-      <c r="F69" s="141"/>
-      <c r="G69" s="142"/>
+      <c r="D69" s="134"/>
+      <c r="E69" s="135"/>
+      <c r="F69" s="135"/>
+      <c r="G69" s="136"/>
     </row>
     <row r="70" spans="2:7" s="93" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="94"/>
@@ -5980,50 +5980,50 @@
       <c r="C72" s="66" t="s">
         <v>246</v>
       </c>
-      <c r="D72" s="134"/>
-      <c r="E72" s="135"/>
-      <c r="F72" s="135"/>
-      <c r="G72" s="143"/>
+      <c r="D72" s="125"/>
+      <c r="E72" s="126"/>
+      <c r="F72" s="126"/>
+      <c r="G72" s="150"/>
     </row>
     <row r="73" spans="2:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="91"/>
       <c r="C73" s="76" t="s">
         <v>247</v>
       </c>
-      <c r="D73" s="131"/>
-      <c r="E73" s="132"/>
-      <c r="F73" s="132"/>
-      <c r="G73" s="144"/>
+      <c r="D73" s="122"/>
+      <c r="E73" s="123"/>
+      <c r="F73" s="123"/>
+      <c r="G73" s="151"/>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="91"/>
       <c r="C74" s="69" t="s">
         <v>248</v>
       </c>
-      <c r="D74" s="122"/>
-      <c r="E74" s="123"/>
-      <c r="F74" s="123"/>
-      <c r="G74" s="124"/>
+      <c r="D74" s="141"/>
+      <c r="E74" s="142"/>
+      <c r="F74" s="142"/>
+      <c r="G74" s="143"/>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="91"/>
       <c r="C75" s="69" t="s">
         <v>240</v>
       </c>
-      <c r="D75" s="125"/>
-      <c r="E75" s="126"/>
-      <c r="F75" s="126"/>
-      <c r="G75" s="127"/>
+      <c r="D75" s="144"/>
+      <c r="E75" s="145"/>
+      <c r="F75" s="145"/>
+      <c r="G75" s="146"/>
     </row>
     <row r="76" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="92"/>
       <c r="C76" s="71" t="s">
         <v>241</v>
       </c>
-      <c r="D76" s="128"/>
-      <c r="E76" s="129"/>
-      <c r="F76" s="129"/>
-      <c r="G76" s="130"/>
+      <c r="D76" s="147"/>
+      <c r="E76" s="148"/>
+      <c r="F76" s="148"/>
+      <c r="G76" s="149"/>
     </row>
     <row r="77" spans="2:7" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C77" s="97"/>
@@ -6075,18 +6075,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G13"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G20"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:G34"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D23:G23"/>
     <mergeCell ref="D74:G76"/>
     <mergeCell ref="D24:G24"/>
     <mergeCell ref="D25:G25"/>
@@ -6098,6 +6086,18 @@
     <mergeCell ref="D54:G55"/>
     <mergeCell ref="D61:G62"/>
     <mergeCell ref="D73:G73"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G20"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:G34"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6107,8 +6107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
